--- a/Bases_IBGE/PIB_Precos_Correntes_IBGE_2009_2018.xlsx
+++ b/Bases_IBGE/PIB_Precos_Correntes_IBGE_2009_2018.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BrunoBarroca\Desktop\OPE\DadosIBGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipeclau\Documents\OPE\OPE_Imapcta\Bases_IBGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE2F464-615D-478A-8587-DBBEFC94D783}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PIB" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -123,11 +132,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,16 +169,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -439,23 +456,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,11 +482,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2009</v>
       </c>
@@ -479,11 +496,11 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>20236193.701999988</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2009</v>
       </c>
@@ -493,11 +510,11 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>7386436.2820000006</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2009</v>
       </c>
@@ -507,11 +524,11 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>49614250.548000008</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2009</v>
       </c>
@@ -521,11 +538,11 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>5593491.0590000004</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -535,11 +552,11 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>58401829.650000013</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2009</v>
       </c>
@@ -549,11 +566,11 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>7404389.1450000014</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2009</v>
       </c>
@@ -563,11 +580,11 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>14571365.601000002</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2009</v>
       </c>
@@ -577,11 +594,11 @@
       <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>39854676.630999997</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2009</v>
       </c>
@@ -591,11 +608,11 @@
       <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>19032665.023000009</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -605,11 +622,11 @@
       <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>65703760.570999987</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2009</v>
       </c>
@@ -619,11 +636,11 @@
       <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>27904988.654999986</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2009</v>
       </c>
@@ -633,11 +650,11 @@
       <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>28718598.467000008</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2009</v>
       </c>
@@ -647,11 +664,11 @@
       <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>78428308.14199999</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2009</v>
       </c>
@@ -661,11 +678,11 @@
       <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>21234950.633999985</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2009</v>
       </c>
@@ -675,11 +692,11 @@
       <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>19767110.932000007</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2009</v>
       </c>
@@ -689,11 +706,11 @@
       <c r="C17" t="s">
         <v>21</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>137074670.69699991</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2009</v>
       </c>
@@ -703,11 +720,11 @@
       <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>287054747.63700002</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2009</v>
       </c>
@@ -717,11 +734,11 @@
       <c r="C19" t="s">
         <v>14</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>66763012.316</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2009</v>
       </c>
@@ -731,11 +748,11 @@
       <c r="C20" t="s">
         <v>23</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>353878135.75900006</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2009</v>
       </c>
@@ -745,11 +762,11 @@
       <c r="C21" t="s">
         <v>24</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>1084353489.6259997</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2009</v>
       </c>
@@ -759,11 +776,11 @@
       <c r="C22" t="s">
         <v>15</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>189991948.57400015</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2009</v>
       </c>
@@ -773,11 +790,11 @@
       <c r="C23" t="s">
         <v>25</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>129806256.29000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2009</v>
       </c>
@@ -787,11 +804,11 @@
       <c r="C24" t="s">
         <v>26</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>215863879.43199986</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2009</v>
       </c>
@@ -801,11 +818,11 @@
       <c r="C25" t="s">
         <v>27</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>36368093.686999999</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2009</v>
       </c>
@@ -815,11 +832,11 @@
       <c r="C26" t="s">
         <v>17</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>57294192.153999984</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2009</v>
       </c>
@@ -829,11 +846,11 @@
       <c r="C27" t="s">
         <v>28</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>85615343.885999933</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2009</v>
       </c>
@@ -843,11 +860,11 @@
       <c r="C28" t="s">
         <v>29</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>131487267.899</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2010</v>
       </c>
@@ -857,11 +874,11 @@
       <c r="C29" t="s">
         <v>3</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>23907886.882000007</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2010</v>
       </c>
@@ -871,11 +888,11 @@
       <c r="C30" t="s">
         <v>4</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>8342355.523000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2010</v>
       </c>
@@ -885,11 +902,11 @@
       <c r="C31" t="s">
         <v>5</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>60877122.684</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2010</v>
       </c>
@@ -899,11 +916,11 @@
       <c r="C32" t="s">
         <v>6</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>6639150.4770000018</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2010</v>
       </c>
@@ -913,11 +930,11 @@
       <c r="C33" t="s">
         <v>7</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>82684517.799000025</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2010</v>
       </c>
@@ -927,11 +944,11 @@
       <c r="C34" t="s">
         <v>8</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>8237795.3509999998</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2010</v>
       </c>
@@ -941,11 +958,11 @@
       <c r="C35" t="s">
         <v>9</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>16404816.088999996</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2010</v>
       </c>
@@ -955,11 +972,11 @@
       <c r="C36" t="s">
         <v>10</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>46309633.108999975</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2010</v>
       </c>
@@ -969,11 +986,11 @@
       <c r="C37" t="s">
         <v>11</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>22269149.134999998</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2010</v>
       </c>
@@ -983,11 +1000,11 @@
       <c r="C38" t="s">
         <v>12</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>79336299.281000033</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2010</v>
       </c>
@@ -997,11 +1014,11 @@
       <c r="C39" t="s">
         <v>13</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>36184502.367999993</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2010</v>
       </c>
@@ -1011,11 +1028,11 @@
       <c r="C40" t="s">
         <v>16</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>33522491.694000013</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2010</v>
       </c>
@@ -1025,11 +1042,11 @@
       <c r="C41" t="s">
         <v>18</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>97189760.476000011</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2010</v>
       </c>
@@ -1039,11 +1056,11 @@
       <c r="C42" t="s">
         <v>19</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>27133037.859999999</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2010</v>
       </c>
@@ -1053,11 +1070,11 @@
       <c r="C43" t="s">
         <v>20</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>26404893.222999986</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2010</v>
       </c>
@@ -1067,11 +1084,11 @@
       <c r="C44" t="s">
         <v>21</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>154419547.37600005</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2010</v>
       </c>
@@ -1081,11 +1098,11 @@
       <c r="C45" t="s">
         <v>22</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>351123417.73200059</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2010</v>
       </c>
@@ -1095,11 +1112,11 @@
       <c r="C46" t="s">
         <v>14</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>85310284.544999987</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2010</v>
       </c>
@@ -1109,11 +1126,11 @@
       <c r="C47" t="s">
         <v>23</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>449858101.10899997</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2010</v>
       </c>
@@ -1123,11 +1140,11 @@
       <c r="C48" t="s">
         <v>24</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>1294695988.4520011</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2010</v>
       </c>
@@ -1137,11 +1154,11 @@
       <c r="C49" t="s">
         <v>15</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>225205254.69599998</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2010</v>
       </c>
@@ -1151,11 +1168,11 @@
       <c r="C50" t="s">
         <v>25</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>153726007.37300006</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2010</v>
       </c>
@@ -1165,11 +1182,11 @@
       <c r="C51" t="s">
         <v>26</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>241249163.89899999</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2010</v>
       </c>
@@ -1179,11 +1196,11 @@
       <c r="C52" t="s">
         <v>27</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
         <v>47270656.394000001</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2010</v>
       </c>
@@ -1193,11 +1210,11 @@
       <c r="C53" t="s">
         <v>17</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1">
         <v>56600955.372999996</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2010</v>
       </c>
@@ -1207,11 +1224,11 @@
       <c r="C54" t="s">
         <v>28</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
         <v>106770109.47799996</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2010</v>
       </c>
@@ -1221,11 +1238,11 @@
       <c r="C55" t="s">
         <v>29</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
         <v>144174101.595</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2011</v>
       </c>
@@ -1235,11 +1252,11 @@
       <c r="C56" t="s">
         <v>3</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>27574714.378999997</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2011</v>
       </c>
@@ -1249,11 +1266,11 @@
       <c r="C57" t="s">
         <v>4</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
         <v>8949433.7580000013</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2011</v>
       </c>
@@ -1263,11 +1280,11 @@
       <c r="C58" t="s">
         <v>5</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
         <v>70734401.222000003</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2011</v>
       </c>
@@ -1277,11 +1294,11 @@
       <c r="C59" t="s">
         <v>6</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1">
         <v>7303719.2680000002</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2011</v>
       </c>
@@ -1291,11 +1308,11 @@
       <c r="C60" t="s">
         <v>7</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="1">
         <v>98710735.865000039</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2011</v>
       </c>
@@ -1305,11 +1322,11 @@
       <c r="C61" t="s">
         <v>8</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="1">
         <v>9409228.0410000011</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2011</v>
       </c>
@@ -1319,11 +1336,11 @@
       <c r="C62" t="s">
         <v>9</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="1">
         <v>18345687.727000006</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2011</v>
       </c>
@@ -1333,11 +1350,11 @@
       <c r="C63" t="s">
         <v>10</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="1">
         <v>52143535.326000012</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2011</v>
       </c>
@@ -1347,11 +1364,11 @@
       <c r="C64" t="s">
         <v>11</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="1">
         <v>25941362.395999994</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2011</v>
       </c>
@@ -1361,11 +1378,11 @@
       <c r="C65" t="s">
         <v>12</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="1">
         <v>89695828.420000032</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2011</v>
       </c>
@@ -1375,11 +1392,11 @@
       <c r="C66" t="s">
         <v>13</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="1">
         <v>40992924.913000003</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2011</v>
       </c>
@@ -1389,11 +1406,11 @@
       <c r="C67" t="s">
         <v>16</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="1">
         <v>37109136.669</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2011</v>
       </c>
@@ -1403,11 +1420,11 @@
       <c r="C68" t="s">
         <v>18</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="1">
         <v>110161558.96399991</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2011</v>
       </c>
@@ -1417,11 +1434,11 @@
       <c r="C69" t="s">
         <v>19</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="1">
         <v>31657320.735999998</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2011</v>
       </c>
@@ -1431,11 +1448,11 @@
       <c r="C70" t="s">
         <v>20</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="1">
         <v>29108271.857000005</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2011</v>
       </c>
@@ -1445,11 +1462,11 @@
       <c r="C71" t="s">
         <v>21</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="1">
         <v>166602816.89499992</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2011</v>
       </c>
@@ -1459,11 +1476,11 @@
       <c r="C72" t="s">
         <v>22</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="1">
         <v>400124687.03499997</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2011</v>
       </c>
@@ -1473,11 +1490,11 @@
       <c r="C73" t="s">
         <v>14</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="1">
         <v>105976222.185</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2011</v>
       </c>
@@ -1487,11 +1504,11 @@
       <c r="C74" t="s">
         <v>23</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="1">
         <v>512767904.76899993</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2011</v>
       </c>
@@ -1501,11 +1518,11 @@
       <c r="C75" t="s">
         <v>24</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="1">
         <v>1436672709.0189996</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2011</v>
       </c>
@@ -1515,11 +1532,11 @@
       <c r="C76" t="s">
         <v>15</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="1">
         <v>257122268.52500033</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2011</v>
       </c>
@@ -1529,11 +1546,11 @@
       <c r="C77" t="s">
         <v>25</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="1">
         <v>174068321.73299995</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2011</v>
       </c>
@@ -1543,11 +1560,11 @@
       <c r="C78" t="s">
         <v>26</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="1">
         <v>265056416.29599994</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2011</v>
       </c>
@@ -1557,11 +1574,11 @@
       <c r="C79" t="s">
         <v>27</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="1">
         <v>55133162.45099999</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2011</v>
       </c>
@@ -1571,11 +1588,11 @@
       <c r="C80" t="s">
         <v>17</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="1">
         <v>69153956.734999999</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2011</v>
       </c>
@@ -1585,11 +1602,11 @@
       <c r="C81" t="s">
         <v>28</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="1">
         <v>121296720.83599995</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2011</v>
       </c>
@@ -1599,11 +1616,11 @@
       <c r="C82" t="s">
         <v>29</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="1">
         <v>154568953.95500001</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2012</v>
       </c>
@@ -1613,11 +1630,11 @@
       <c r="C83" t="s">
         <v>3</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="1">
         <v>30112720.319999997</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2012</v>
       </c>
@@ -1627,11 +1644,11 @@
       <c r="C84" t="s">
         <v>4</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="1">
         <v>10137924.705000002</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2012</v>
       </c>
@@ -1641,11 +1658,11 @@
       <c r="C85" t="s">
         <v>5</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="1">
         <v>72242700.676000014</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2012</v>
       </c>
@@ -1655,11 +1672,11 @@
       <c r="C86" t="s">
         <v>6</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="1">
         <v>7711467.1150000002</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2012</v>
       </c>
@@ -1669,11 +1686,11 @@
       <c r="C87" t="s">
         <v>7</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="1">
         <v>107080880.91400003</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2012</v>
       </c>
@@ -1683,11 +1700,11 @@
       <c r="C88" t="s">
         <v>8</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="1">
         <v>11130867.801999999</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2012</v>
       </c>
@@ -1697,11 +1714,11 @@
       <c r="C89" t="s">
         <v>9</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="1">
         <v>20684429.940000001</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2012</v>
       </c>
@@ -1711,11 +1728,11 @@
       <c r="C90" t="s">
         <v>10</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="1">
         <v>60490108.518000007</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2012</v>
       </c>
@@ -1725,11 +1742,11 @@
       <c r="C91" t="s">
         <v>11</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="1">
         <v>28637684.706000008</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2012</v>
       </c>
@@ -1739,11 +1756,11 @@
       <c r="C92" t="s">
         <v>12</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="1">
         <v>96973752.889000028</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2012</v>
       </c>
@@ -1753,11 +1770,11 @@
       <c r="C93" t="s">
         <v>13</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="1">
         <v>46412208.354000002</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2012</v>
       </c>
@@ -1767,11 +1784,11 @@
       <c r="C94" t="s">
         <v>16</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="1">
         <v>42488349.200000033</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2012</v>
       </c>
@@ -1781,11 +1798,11 @@
       <c r="C95" t="s">
         <v>18</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="1">
         <v>127989043.34400006</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2012</v>
       </c>
@@ -1795,11 +1812,11 @@
       <c r="C96" t="s">
         <v>19</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="1">
         <v>34650397.469000012</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2012</v>
       </c>
@@ -1809,11 +1826,11 @@
       <c r="C97" t="s">
         <v>20</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="1">
         <v>32853180.807000004</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2012</v>
       </c>
@@ -1823,11 +1840,11 @@
       <c r="C98" t="s">
         <v>21</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="1">
         <v>182572530.05299991</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2012</v>
       </c>
@@ -1837,11 +1854,11 @@
       <c r="C99" t="s">
         <v>22</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="1">
         <v>442282829.87400031</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2012</v>
       </c>
@@ -1851,11 +1868,11 @@
       <c r="C100" t="s">
         <v>14</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="1">
         <v>116850580.542</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2012</v>
       </c>
@@ -1865,11 +1882,11 @@
       <c r="C101" t="s">
         <v>23</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="1">
         <v>574884973.13000011</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2012</v>
       </c>
@@ -1879,11 +1896,11 @@
       <c r="C102" t="s">
         <v>24</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="1">
         <v>1559033443.6960006</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2012</v>
       </c>
@@ -1893,11 +1910,11 @@
       <c r="C103" t="s">
         <v>15</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="1">
         <v>285620201.62400001</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2012</v>
       </c>
@@ -1907,11 +1924,11 @@
       <c r="C104" t="s">
         <v>25</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="1">
         <v>191794652.13899997</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2012</v>
       </c>
@@ -1921,11 +1938,11 @@
       <c r="C105" t="s">
         <v>26</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="1">
         <v>287587018.67799997</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2012</v>
       </c>
@@ -1935,11 +1952,11 @@
       <c r="C106" t="s">
         <v>27</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="1">
         <v>62013200.88499999</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2012</v>
       </c>
@@ -1949,11 +1966,11 @@
       <c r="C107" t="s">
         <v>17</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="1">
         <v>79665691.136999995</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2012</v>
       </c>
@@ -1963,11 +1980,11 @@
       <c r="C108" t="s">
         <v>28</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="1">
         <v>138757825.02999991</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2012</v>
       </c>
@@ -1977,11 +1994,11 @@
       <c r="C109" t="s">
         <v>29</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="1">
         <v>164101336.47499999</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2013</v>
       </c>
@@ -1991,11 +2008,11 @@
       <c r="C110" t="s">
         <v>3</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="1">
         <v>31121412.531000007</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2013</v>
       </c>
@@ -2005,11 +2022,11 @@
       <c r="C111" t="s">
         <v>4</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="1">
         <v>11473930.165999999</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2013</v>
       </c>
@@ -2019,11 +2036,11 @@
       <c r="C112" t="s">
         <v>5</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="1">
         <v>83051232.957999974</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2013</v>
       </c>
@@ -2033,11 +2050,11 @@
       <c r="C113" t="s">
         <v>6</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="1">
         <v>9010725.2770000007</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2013</v>
       </c>
@@ -2047,11 +2064,11 @@
       <c r="C114" t="s">
         <v>7</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="1">
         <v>121224846.59400001</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2013</v>
       </c>
@@ -2061,11 +2078,11 @@
       <c r="C115" t="s">
         <v>8</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="1">
         <v>12763486.217999998</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2013</v>
       </c>
@@ -2075,11 +2092,11 @@
       <c r="C116" t="s">
         <v>9</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="1">
         <v>23796656.414999995</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2013</v>
       </c>
@@ -2089,11 +2106,11 @@
       <c r="C117" t="s">
         <v>10</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="1">
         <v>67694844.541000009</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2013</v>
       </c>
@@ -2103,11 +2120,11 @@
       <c r="C118" t="s">
         <v>11</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="1">
         <v>31283593.019000009</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2013</v>
       </c>
@@ -2117,11 +2134,11 @@
       <c r="C119" t="s">
         <v>12</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="1">
         <v>109036556.35300006</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2013</v>
       </c>
@@ -2131,11 +2148,11 @@
       <c r="C120" t="s">
         <v>13</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="1">
         <v>51518456.549999997</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2013</v>
       </c>
@@ -2145,11 +2162,11 @@
       <c r="C121" t="s">
         <v>16</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="1">
         <v>46377299.274000004</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2013</v>
       </c>
@@ -2159,11 +2176,11 @@
       <c r="C122" t="s">
         <v>18</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="1">
         <v>141150251.79600003</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2013</v>
       </c>
@@ -2173,11 +2190,11 @@
       <c r="C123" t="s">
         <v>19</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="1">
         <v>37282529.122000001</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2013</v>
       </c>
@@ -2187,11 +2204,11 @@
       <c r="C124" t="s">
         <v>20</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="1">
         <v>35335986.073000006</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2013</v>
       </c>
@@ -2201,11 +2218,11 @@
       <c r="C125" t="s">
         <v>21</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="1">
         <v>204844273.53899974</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2013</v>
       </c>
@@ -2215,11 +2232,11 @@
       <c r="C126" t="s">
         <v>22</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="1">
         <v>488004903.01099914</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2013</v>
       </c>
@@ -2229,11 +2246,11 @@
       <c r="C127" t="s">
         <v>14</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="1">
         <v>117274346.94299999</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2013</v>
       </c>
@@ -2243,11 +2260,11 @@
       <c r="C128" t="s">
         <v>23</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="1">
         <v>628226069.36199987</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2013</v>
       </c>
@@ -2257,11 +2274,11 @@
       <c r="C129" t="s">
         <v>24</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="1">
         <v>1715238416.5659997</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2013</v>
       </c>
@@ -2271,11 +2288,11 @@
       <c r="C130" t="s">
         <v>15</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="1">
         <v>333481152.16200018</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2013</v>
       </c>
@@ -2285,11 +2302,11 @@
       <c r="C131" t="s">
         <v>25</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="1">
         <v>214512241.57099995</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2013</v>
       </c>
@@ -2299,11 +2316,11 @@
       <c r="C132" t="s">
         <v>26</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="1">
         <v>332292726.08499968</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2013</v>
       </c>
@@ -2313,11 +2330,11 @@
       <c r="C133" t="s">
         <v>27</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="1">
         <v>69203201.261999995</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2013</v>
       </c>
@@ -2327,11 +2344,11 @@
       <c r="C134" t="s">
         <v>17</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="1">
         <v>89212918.587999985</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2013</v>
       </c>
@@ -2341,11 +2358,11 @@
       <c r="C135" t="s">
         <v>28</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="1">
         <v>151300175.11300001</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2013</v>
       </c>
@@ -2355,11 +2372,11 @@
       <c r="C136" t="s">
         <v>29</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="1">
         <v>175906725.53200001</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2014</v>
       </c>
@@ -2369,11 +2386,11 @@
       <c r="C137" t="s">
         <v>3</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="1">
         <v>34030981.97299999</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2014</v>
       </c>
@@ -2383,11 +2400,11 @@
       <c r="C138" t="s">
         <v>4</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="1">
         <v>13458697.629999999</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2014</v>
       </c>
@@ -2397,11 +2414,11 @@
       <c r="C139" t="s">
         <v>5</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="1">
         <v>86668643.770000011</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2014</v>
       </c>
@@ -2411,11 +2428,11 @@
       <c r="C140" t="s">
         <v>6</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="1">
         <v>9744122.3090000041</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2014</v>
       </c>
@@ -2425,11 +2442,11 @@
       <c r="C141" t="s">
         <v>7</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="1">
         <v>124584945.02299997</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2014</v>
       </c>
@@ -2439,11 +2456,11 @@
       <c r="C142" t="s">
         <v>8</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="1">
         <v>13400283.589999996</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>2014</v>
       </c>
@@ -2453,11 +2470,11 @@
       <c r="C143" t="s">
         <v>9</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="1">
         <v>26189322.645999994</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>2014</v>
       </c>
@@ -2467,11 +2484,11 @@
       <c r="C144" t="s">
         <v>10</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="1">
         <v>76842027.644000009</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2014</v>
       </c>
@@ -2481,11 +2498,11 @@
       <c r="C145" t="s">
         <v>11</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="1">
         <v>37723496.640000023</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>2014</v>
       </c>
@@ -2495,11 +2512,11 @@
       <c r="C146" t="s">
         <v>12</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="1">
         <v>126054471.62499999</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2014</v>
       </c>
@@ -2509,11 +2526,11 @@
       <c r="C147" t="s">
         <v>13</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="1">
         <v>54022583.912000008</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>2014</v>
       </c>
@@ -2523,11 +2540,11 @@
       <c r="C148" t="s">
         <v>16</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="1">
         <v>52936483.065000042</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2014</v>
       </c>
@@ -2537,11 +2554,11 @@
       <c r="C149" t="s">
         <v>18</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="1">
         <v>155142647.93200001</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2014</v>
       </c>
@@ -2551,11 +2568,11 @@
       <c r="C150" t="s">
         <v>19</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="1">
         <v>40974994.013999991</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2014</v>
       </c>
@@ -2565,11 +2582,11 @@
       <c r="C151" t="s">
         <v>20</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="1">
         <v>37472431.502000012</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>2014</v>
       </c>
@@ -2579,11 +2596,11 @@
       <c r="C152" t="s">
         <v>21</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="1">
         <v>223929966.17199987</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>2014</v>
       </c>
@@ -2593,11 +2610,11 @@
       <c r="C153" t="s">
         <v>22</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="1">
         <v>516633984.09599984</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>2014</v>
       </c>
@@ -2607,11 +2624,11 @@
       <c r="C154" t="s">
         <v>14</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="1">
         <v>128783781.147</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>2014</v>
       </c>
@@ -2621,11 +2638,11 @@
       <c r="C155" t="s">
         <v>23</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="1">
         <v>671076844.31100011</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>2014</v>
       </c>
@@ -2635,11 +2652,11 @@
       <c r="C156" t="s">
         <v>24</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="1">
         <v>1858196055.4939978</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>2014</v>
       </c>
@@ -2649,11 +2666,11 @@
       <c r="C157" t="s">
         <v>15</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="1">
         <v>348084190.84899992</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>2014</v>
       </c>
@@ -2663,11 +2680,11 @@
       <c r="C158" t="s">
         <v>25</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="1">
         <v>242553370.85099998</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>2014</v>
       </c>
@@ -2677,11 +2694,11 @@
       <c r="C159" t="s">
         <v>26</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="1">
         <v>357816423.82099968</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>2014</v>
       </c>
@@ -2691,11 +2708,11 @@
       <c r="C160" t="s">
         <v>27</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="1">
         <v>78950132.708999991</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>2014</v>
       </c>
@@ -2705,11 +2722,11 @@
       <c r="C161" t="s">
         <v>17</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="1">
         <v>101234520.26800001</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>2014</v>
       </c>
@@ -2719,11 +2736,11 @@
       <c r="C162" t="s">
         <v>28</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="1">
         <v>165015318.46699995</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>2014</v>
       </c>
@@ -2733,11 +2750,11 @@
       <c r="C163" t="s">
         <v>29</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="1">
         <v>197432058.52700001</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>2015</v>
       </c>
@@ -2747,11 +2764,11 @@
       <c r="C164" t="s">
         <v>3</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="1">
         <v>36563332.700000003</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>2015</v>
       </c>
@@ -2761,11 +2778,11 @@
       <c r="C165" t="s">
         <v>4</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="1">
         <v>13622801.798999999</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>2015</v>
       </c>
@@ -2775,11 +2792,11 @@
       <c r="C166" t="s">
         <v>5</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="1">
         <v>86568184.23300001</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>2015</v>
       </c>
@@ -2789,11 +2806,11 @@
       <c r="C167" t="s">
         <v>6</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="1">
         <v>10242905.136999998</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>2015</v>
       </c>
@@ -2803,11 +2820,11 @@
       <c r="C168" t="s">
         <v>7</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="1">
         <v>130899505.11500001</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>2015</v>
       </c>
@@ -2817,11 +2834,11 @@
       <c r="C169" t="s">
         <v>8</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="1">
         <v>13861293.272000004</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>2015</v>
       </c>
@@ -2831,11 +2848,11 @@
       <c r="C170" t="s">
         <v>9</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="1">
         <v>28930290.798000015</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>2015</v>
       </c>
@@ -2845,11 +2862,11 @@
       <c r="C171" t="s">
         <v>10</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="1">
         <v>78475993.839000002</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>2015</v>
       </c>
@@ -2859,11 +2876,11 @@
       <c r="C172" t="s">
         <v>11</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="1">
         <v>39149685.743999988</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>2015</v>
       </c>
@@ -2873,11 +2890,11 @@
       <c r="C173" t="s">
         <v>12</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="1">
         <v>130629848.52600001</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>2015</v>
       </c>
@@ -2887,11 +2904,11 @@
       <c r="C174" t="s">
         <v>13</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="1">
         <v>57250866.828999966</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>2015</v>
       </c>
@@ -2901,11 +2918,11 @@
       <c r="C175" t="s">
         <v>16</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="1">
         <v>56141890.25400003</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>2015</v>
       </c>
@@ -2915,11 +2932,11 @@
       <c r="C176" t="s">
         <v>18</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="1">
         <v>156963667.544</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>2015</v>
       </c>
@@ -2929,11 +2946,11 @@
       <c r="C177" t="s">
         <v>19</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="1">
         <v>46367210.608000018</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>2015</v>
       </c>
@@ -2943,11 +2960,11 @@
       <c r="C178" t="s">
         <v>20</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="1">
         <v>38556530.458000012</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>2015</v>
       </c>
@@ -2957,11 +2974,11 @@
       <c r="C179" t="s">
         <v>21</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="1">
         <v>245043689.66099998</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>2015</v>
       </c>
@@ -2971,11 +2988,11 @@
       <c r="C180" t="s">
         <v>22</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="1">
         <v>519331213.13799948</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>2015</v>
       </c>
@@ -2985,11 +3002,11 @@
       <c r="C181" t="s">
         <v>14</v>
       </c>
-      <c r="D181">
+      <c r="D181" s="1">
         <v>120365979.91400003</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>2015</v>
       </c>
@@ -2999,11 +3016,11 @@
       <c r="C182" t="s">
         <v>23</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="1">
         <v>659138951.83299994</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>2015</v>
       </c>
@@ -3013,11 +3030,11 @@
       <c r="C183" t="s">
         <v>24</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="1">
         <v>1939901907.1180017</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>2015</v>
       </c>
@@ -3027,11 +3044,11 @@
       <c r="C184" t="s">
         <v>15</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="1">
         <v>376962821.63200045</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>2015</v>
       </c>
@@ -3041,11 +3058,11 @@
       <c r="C185" t="s">
         <v>25</v>
       </c>
-      <c r="D185">
+      <c r="D185" s="1">
         <v>249079642.28099999</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>2015</v>
       </c>
@@ -3055,11 +3072,11 @@
       <c r="C186" t="s">
         <v>26</v>
       </c>
-      <c r="D186">
+      <c r="D186" s="1">
         <v>381992601.11800003</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>2015</v>
       </c>
@@ -3069,11 +3086,11 @@
       <c r="C187" t="s">
         <v>27</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="1">
         <v>83082554.714000031</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>2015</v>
       </c>
@@ -3083,11 +3100,11 @@
       <c r="C188" t="s">
         <v>17</v>
       </c>
-      <c r="D188">
+      <c r="D188" s="1">
         <v>107418318.63199998</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>2015</v>
       </c>
@@ -3097,11 +3114,11 @@
       <c r="C189" t="s">
         <v>28</v>
       </c>
-      <c r="D189">
+      <c r="D189" s="1">
         <v>173632450.24300012</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>2015</v>
       </c>
@@ -3111,11 +3128,11 @@
       <c r="C190" t="s">
         <v>29</v>
       </c>
-      <c r="D190">
+      <c r="D190" s="1">
         <v>215612862.838</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>2016</v>
       </c>
@@ -3125,11 +3142,11 @@
       <c r="C191" t="s">
         <v>3</v>
       </c>
-      <c r="D191">
+      <c r="D191" s="1">
         <v>39460358.978000008</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>2016</v>
       </c>
@@ -3139,11 +3156,11 @@
       <c r="C192" t="s">
         <v>4</v>
       </c>
-      <c r="D192">
+      <c r="D192" s="1">
         <v>13754239.978</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>2016</v>
       </c>
@@ -3153,11 +3170,11 @@
       <c r="C193" t="s">
         <v>5</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="1">
         <v>89039781.990999967</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>2016</v>
       </c>
@@ -3167,11 +3184,11 @@
       <c r="C194" t="s">
         <v>6</v>
       </c>
-      <c r="D194">
+      <c r="D194" s="1">
         <v>11013237.213000003</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>2016</v>
       </c>
@@ -3181,11 +3198,11 @@
       <c r="C195" t="s">
         <v>7</v>
       </c>
-      <c r="D195">
+      <c r="D195" s="1">
         <v>138107514.25699994</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>2016</v>
       </c>
@@ -3195,11 +3212,11 @@
       <c r="C196" t="s">
         <v>8</v>
       </c>
-      <c r="D196">
+      <c r="D196" s="1">
         <v>14342135.080999998</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>2016</v>
       </c>
@@ -3209,11 +3226,11 @@
       <c r="C197" t="s">
         <v>9</v>
       </c>
-      <c r="D197">
+      <c r="D197" s="1">
         <v>31584816.192999993</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>2016</v>
       </c>
@@ -3223,11 +3240,11 @@
       <c r="C198" t="s">
         <v>10</v>
       </c>
-      <c r="D198">
+      <c r="D198" s="1">
         <v>85310038.136999995</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>2016</v>
       </c>
@@ -3237,11 +3254,11 @@
       <c r="C199" t="s">
         <v>11</v>
       </c>
-      <c r="D199">
+      <c r="D199" s="1">
         <v>41416936.733999997</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>2016</v>
       </c>
@@ -3251,11 +3268,11 @@
       <c r="C200" t="s">
         <v>12</v>
       </c>
-      <c r="D200">
+      <c r="D200" s="1">
         <v>138422520.66199994</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>2016</v>
       </c>
@@ -3265,11 +3282,11 @@
       <c r="C201" t="s">
         <v>13</v>
       </c>
-      <c r="D201">
+      <c r="D201" s="1">
         <v>59677388.845999978</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>2016</v>
       </c>
@@ -3279,11 +3296,11 @@
       <c r="C202" t="s">
         <v>16</v>
       </c>
-      <c r="D202">
+      <c r="D202" s="1">
         <v>59104781.396000005</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>2016</v>
       </c>
@@ -3293,11 +3310,11 @@
       <c r="C203" t="s">
         <v>18</v>
       </c>
-      <c r="D203">
+      <c r="D203" s="1">
         <v>167345031.24399993</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>2016</v>
       </c>
@@ -3307,11 +3324,11 @@
       <c r="C204" t="s">
         <v>19</v>
       </c>
-      <c r="D204">
+      <c r="D204" s="1">
         <v>49468740.909000024</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>2016</v>
       </c>
@@ -3321,11 +3338,11 @@
       <c r="C205" t="s">
         <v>20</v>
       </c>
-      <c r="D205">
+      <c r="D205" s="1">
         <v>38877438.482000001</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>2016</v>
       </c>
@@ -3335,11 +3352,11 @@
       <c r="C206" t="s">
         <v>21</v>
       </c>
-      <c r="D206">
+      <c r="D206" s="1">
         <v>258738970.25600004</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>2016</v>
       </c>
@@ -3349,11 +3366,11 @@
       <c r="C207" t="s">
         <v>22</v>
       </c>
-      <c r="D207">
+      <c r="D207" s="1">
         <v>544810468.38999975</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>2016</v>
       </c>
@@ -3363,11 +3380,11 @@
       <c r="C208" t="s">
         <v>14</v>
       </c>
-      <c r="D208">
+      <c r="D208" s="1">
         <v>109264423.09299998</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>2016</v>
       </c>
@@ -3377,11 +3394,11 @@
       <c r="C209" t="s">
         <v>23</v>
       </c>
-      <c r="D209">
+      <c r="D209" s="1">
         <v>640401206.44700027</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>2016</v>
       </c>
@@ -3391,11 +3408,11 @@
       <c r="C210" t="s">
         <v>24</v>
       </c>
-      <c r="D210">
+      <c r="D210" s="1">
         <v>2038757381.6300018</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>2016</v>
       </c>
@@ -3405,11 +3422,11 @@
       <c r="C211" t="s">
         <v>15</v>
       </c>
-      <c r="D211">
+      <c r="D211" s="1">
         <v>401814164.41900015</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>2016</v>
       </c>
@@ -3419,11 +3436,11 @@
       <c r="C212" t="s">
         <v>25</v>
       </c>
-      <c r="D212">
+      <c r="D212" s="1">
         <v>256754668.52400008</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>2016</v>
       </c>
@@ -3433,11 +3450,11 @@
       <c r="C213" t="s">
         <v>26</v>
       </c>
-      <c r="D213">
+      <c r="D213" s="1">
         <v>408789528.05400032</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>2016</v>
       </c>
@@ -3447,11 +3464,11 @@
       <c r="C214" t="s">
         <v>27</v>
       </c>
-      <c r="D214">
+      <c r="D214" s="1">
         <v>91892285.158999994</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>2016</v>
       </c>
@@ -3461,11 +3478,11 @@
       <c r="C215" t="s">
         <v>17</v>
       </c>
-      <c r="D215">
+      <c r="D215" s="1">
         <v>123880295.55799995</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>2016</v>
       </c>
@@ -3475,11 +3492,11 @@
       <c r="C216" t="s">
         <v>28</v>
       </c>
-      <c r="D216">
+      <c r="D216" s="1">
         <v>181759603.53399992</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>2016</v>
       </c>
@@ -3489,11 +3506,11 @@
       <c r="C217" t="s">
         <v>29</v>
       </c>
-      <c r="D217">
+      <c r="D217" s="1">
         <v>235540044.81099999</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>2017</v>
       </c>
@@ -3503,11 +3520,11 @@
       <c r="C218" t="s">
         <v>3</v>
       </c>
-      <c r="D218">
+      <c r="D218" s="1">
         <v>43506498.828000009</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>2017</v>
       </c>
@@ -3517,11 +3534,11 @@
       <c r="C219" t="s">
         <v>4</v>
       </c>
-      <c r="D219">
+      <c r="D219" s="1">
         <v>14271063.141000001</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>2017</v>
       </c>
@@ -3531,11 +3548,11 @@
       <c r="C220" t="s">
         <v>5</v>
       </c>
-      <c r="D220">
+      <c r="D220" s="1">
         <v>93204175.001000002</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>2017</v>
       </c>
@@ -3545,11 +3562,11 @@
       <c r="C221" t="s">
         <v>6</v>
       </c>
-      <c r="D221">
+      <c r="D221" s="1">
         <v>12103236.368999997</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>2017</v>
       </c>
@@ -3559,11 +3576,11 @@
       <c r="C222" t="s">
         <v>7</v>
       </c>
-      <c r="D222">
+      <c r="D222" s="1">
         <v>155195370.56499997</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>2017</v>
       </c>
@@ -3573,11 +3590,11 @@
       <c r="C223" t="s">
         <v>8</v>
       </c>
-      <c r="D223">
+      <c r="D223" s="1">
         <v>15479885.071999997</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>2017</v>
       </c>
@@ -3587,11 +3604,11 @@
       <c r="C224" t="s">
         <v>9</v>
       </c>
-      <c r="D224">
+      <c r="D224" s="1">
         <v>34101687.374000005</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>2017</v>
       </c>
@@ -3601,11 +3618,11 @@
       <c r="C225" t="s">
         <v>10</v>
       </c>
-      <c r="D225">
+      <c r="D225" s="1">
         <v>89524183.602000028</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>2017</v>
       </c>
@@ -3615,11 +3632,11 @@
       <c r="C226" t="s">
         <v>11</v>
       </c>
-      <c r="D226">
+      <c r="D226" s="1">
         <v>45358615.524000011</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>2017</v>
       </c>
@@ -3629,11 +3646,11 @@
       <c r="C227" t="s">
         <v>12</v>
       </c>
-      <c r="D227">
+      <c r="D227" s="1">
         <v>147890391.75700006</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>2017</v>
       </c>
@@ -3643,11 +3660,11 @@
       <c r="C228" t="s">
         <v>13</v>
       </c>
-      <c r="D228">
+      <c r="D228" s="1">
         <v>64294546.553000011</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>2017</v>
       </c>
@@ -3657,11 +3674,11 @@
       <c r="C229" t="s">
         <v>16</v>
       </c>
-      <c r="D229">
+      <c r="D229" s="1">
         <v>62386786.644999951</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>2017</v>
       </c>
@@ -3671,11 +3688,11 @@
       <c r="C230" t="s">
         <v>18</v>
       </c>
-      <c r="D230">
+      <c r="D230" s="1">
         <v>181550642.01399991</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>2017</v>
       </c>
@@ -3685,11 +3702,11 @@
       <c r="C231" t="s">
         <v>19</v>
       </c>
-      <c r="D231">
+      <c r="D231" s="1">
         <v>52843468.177000023</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>2017</v>
       </c>
@@ -3699,11 +3716,11 @@
       <c r="C232" t="s">
         <v>20</v>
       </c>
-      <c r="D232">
+      <c r="D232" s="1">
         <v>40703766.020000003</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>2017</v>
       </c>
@@ -3713,11 +3730,11 @@
       <c r="C233" t="s">
         <v>21</v>
       </c>
-      <c r="D233">
+      <c r="D233" s="1">
         <v>268660840.78399998</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>2017</v>
       </c>
@@ -3727,11 +3744,11 @@
       <c r="C234" t="s">
         <v>22</v>
       </c>
-      <c r="D234">
+      <c r="D234" s="1">
         <v>576199050.51900005</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>2017</v>
       </c>
@@ -3741,11 +3758,11 @@
       <c r="C235" t="s">
         <v>14</v>
       </c>
-      <c r="D235">
+      <c r="D235" s="1">
         <v>113351862.56099999</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>2017</v>
       </c>
@@ -3755,11 +3772,11 @@
       <c r="C236" t="s">
         <v>23</v>
       </c>
-      <c r="D236">
+      <c r="D236" s="1">
         <v>671362363.86200011</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>2017</v>
       </c>
@@ -3769,11 +3786,11 @@
       <c r="C237" t="s">
         <v>24</v>
       </c>
-      <c r="D237">
+      <c r="D237" s="1">
         <v>2119854034.9960008</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>2017</v>
       </c>
@@ -3783,11 +3800,11 @@
       <c r="C238" t="s">
         <v>15</v>
       </c>
-      <c r="D238">
+      <c r="D238" s="1">
         <v>421374933.33899993</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>2017</v>
       </c>
@@ -3797,11 +3814,11 @@
       <c r="C239" t="s">
         <v>25</v>
       </c>
-      <c r="D239">
+      <c r="D239" s="1">
         <v>277191960.84499973</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>2017</v>
       </c>
@@ -3811,11 +3828,11 @@
       <c r="C240" t="s">
         <v>26</v>
       </c>
-      <c r="D240">
+      <c r="D240" s="1">
         <v>423150937.36999983</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>2017</v>
       </c>
@@ -3825,11 +3842,11 @@
       <c r="C241" t="s">
         <v>27</v>
       </c>
-      <c r="D241">
+      <c r="D241" s="1">
         <v>96372195.283000022</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>2017</v>
       </c>
@@ -3839,11 +3856,11 @@
       <c r="C242" t="s">
         <v>17</v>
       </c>
-      <c r="D242">
+      <c r="D242" s="1">
         <v>126805057.84199998</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>2017</v>
       </c>
@@ -3853,11 +3870,11 @@
       <c r="C243" t="s">
         <v>28</v>
       </c>
-      <c r="D243">
+      <c r="D243" s="1">
         <v>191898689.52699995</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>2017</v>
       </c>
@@ -3867,11 +3884,11 @@
       <c r="C244" t="s">
         <v>29</v>
       </c>
-      <c r="D244">
+      <c r="D244" s="1">
         <v>244682756.47400001</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>2018</v>
       </c>
@@ -3881,11 +3898,11 @@
       <c r="C245" t="s">
         <v>3</v>
       </c>
-      <c r="D245" s="2">
+      <c r="D245" s="1">
         <v>45527784.324000001</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>2018</v>
       </c>
@@ -3895,11 +3912,11 @@
       <c r="C246" t="s">
         <v>4</v>
       </c>
-      <c r="D246" s="2">
+      <c r="D246" s="1">
         <v>14934088.061000001</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>2018</v>
       </c>
@@ -3909,11 +3926,11 @@
       <c r="C247" t="s">
         <v>5</v>
       </c>
-      <c r="D247" s="2">
+      <c r="D247" s="1">
         <v>97534384.329999998</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>2018</v>
       </c>
@@ -3923,11 +3940,11 @@
       <c r="C248" t="s">
         <v>6</v>
       </c>
-      <c r="D248" s="2">
+      <c r="D248" s="1">
         <v>12665545.375</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>2018</v>
       </c>
@@ -3937,11 +3954,11 @@
       <c r="C249" t="s">
         <v>7</v>
       </c>
-      <c r="D249" s="2">
+      <c r="D249" s="1">
         <v>162405653.167</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>2018</v>
       </c>
@@ -3951,11 +3968,11 @@
       <c r="C250" t="s">
         <v>8</v>
       </c>
-      <c r="D250" s="2">
+      <c r="D250" s="1">
         <v>16199071.125</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>2018</v>
       </c>
@@ -3965,11 +3982,11 @@
       <c r="C251" t="s">
         <v>9</v>
       </c>
-      <c r="D251" s="2">
+      <c r="D251" s="1">
         <v>35686031.045000002</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>2018</v>
       </c>
@@ -3979,11 +3996,11 @@
       <c r="C252" t="s">
         <v>10</v>
       </c>
-      <c r="D252" s="2">
+      <c r="D252" s="1">
         <v>93683422.767000005</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>2018</v>
       </c>
@@ -3993,11 +4010,11 @@
       <c r="C253" t="s">
         <v>11</v>
       </c>
-      <c r="D253" s="2">
+      <c r="D253" s="1">
         <v>47465949.236000001</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>2018</v>
       </c>
@@ -4007,11 +4024,11 @@
       <c r="C254" t="s">
         <v>12</v>
       </c>
-      <c r="D254" s="2">
+      <c r="D254" s="1">
         <v>154761289.48300001</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>2018</v>
       </c>
@@ -4021,11 +4038,11 @@
       <c r="C255" t="s">
         <v>13</v>
       </c>
-      <c r="D255" s="2">
+      <c r="D255" s="1">
         <v>67281632.113000005</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>2018</v>
       </c>
@@ -4039,7 +4056,7 @@
         <v>65285238.839000002</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>2018</v>
       </c>
@@ -4049,11 +4066,11 @@
       <c r="C257" t="s">
         <v>18</v>
       </c>
-      <c r="D257" s="2">
+      <c r="D257" s="1">
         <v>189985374.51100001</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>2018</v>
       </c>
@@ -4063,11 +4080,11 @@
       <c r="C258" t="s">
         <v>19</v>
       </c>
-      <c r="D258" s="2">
+      <c r="D258" s="1">
         <v>55298543.593999997</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>2018</v>
       </c>
@@ -4077,11 +4094,11 @@
       <c r="C259" t="s">
         <v>20</v>
       </c>
-      <c r="D259" s="2">
+      <c r="D259" s="1">
         <v>42594838.252999999</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>2018</v>
       </c>
@@ -4091,11 +4108,11 @@
       <c r="C260" t="s">
         <v>21</v>
       </c>
-      <c r="D260" s="2">
+      <c r="D260" s="1">
         <v>281142660.17799997</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>2018</v>
       </c>
@@ -4105,11 +4122,11 @@
       <c r="C261" t="s">
         <v>22</v>
       </c>
-      <c r="D261" s="2">
+      <c r="D261" s="1">
         <v>602968908.24300003</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>2018</v>
       </c>
@@ -4119,11 +4136,11 @@
       <c r="C262" t="s">
         <v>14</v>
       </c>
-      <c r="D262" s="2">
+      <c r="D262" s="1">
         <v>118618121.20999999</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>2018</v>
       </c>
@@ -4133,11 +4150,11 @@
       <c r="C263" t="s">
         <v>23</v>
       </c>
-      <c r="D263" s="2">
+      <c r="D263" s="1">
         <v>702553451.29200006</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>2018</v>
       </c>
@@ -4147,11 +4164,11 @@
       <c r="C264" t="s">
         <v>24</v>
       </c>
-      <c r="D264" s="2">
+      <c r="D264" s="1">
         <v>2218341165.2010002</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>2018</v>
       </c>
@@ -4161,11 +4178,11 @@
       <c r="C265" t="s">
         <v>15</v>
       </c>
-      <c r="D265" s="2">
+      <c r="D265" s="1">
         <v>440951756.667</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>2018</v>
       </c>
@@ -4179,7 +4196,7 @@
         <v>290070130.89200002</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>2018</v>
       </c>
@@ -4189,11 +4206,11 @@
       <c r="C267" t="s">
         <v>26</v>
       </c>
-      <c r="D267" s="2">
+      <c r="D267" s="1">
         <v>442810272.76599997</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>2018</v>
       </c>
@@ -4203,11 +4220,11 @@
       <c r="C268" t="s">
         <v>27</v>
       </c>
-      <c r="D268" s="2">
+      <c r="D268" s="1">
         <v>100849588.90899999</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>2018</v>
       </c>
@@ -4217,11 +4234,11 @@
       <c r="C269" t="s">
         <v>17</v>
       </c>
-      <c r="D269" s="2">
+      <c r="D269" s="1">
         <v>132696343.76800001</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>2018</v>
       </c>
@@ -4231,11 +4248,11 @@
       <c r="C270" t="s">
         <v>28</v>
       </c>
-      <c r="D270" s="2">
+      <c r="D270" s="1">
         <v>200814186.023</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>2018</v>
       </c>
@@ -4245,7 +4262,7 @@
       <c r="C271" t="s">
         <v>29</v>
       </c>
-      <c r="D271" s="2">
+      <c r="D271" s="1">
         <v>256050568.64300001</v>
       </c>
     </row>
